--- a/data/sector_correlations/2015_intra.xlsx
+++ b/data/sector_correlations/2015_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,401 +448,381 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(34)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5290953041988447</v>
+        <v>0.5423198209279574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electric Utilities(29)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4218391802632076</v>
+        <v>0.4271537997120528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4048105841666986</v>
+        <v>0.4204824388844848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics(12)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4035325015565934</v>
+        <v>0.4187471659623295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(23)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3796825924034349</v>
+        <v>0.4163434739926311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chemicals(55)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3755416401770486</v>
+        <v>0.4101314264982653</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Multi-Utilities(19)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3676681655760287</v>
+        <v>0.4048105841666986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blank Check / SPAC(32)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3649873906952702</v>
+        <v>0.4001645687494276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Marine(16)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3588878381407782</v>
+        <v>0.3919310531092248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Machinery(93)</t>
+          <t>Air Freight &amp; Logistics(11)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3554279411410319</v>
+        <v>0.3843055748893925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging(14)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3484268823084415</v>
+        <v>0.3663951961680489</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Insurance(80)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3454570082444733</v>
+        <v>0.354268143137205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(128)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3260039365265591</v>
+        <v>0.3459232203685237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(95)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.325559976576936</v>
+        <v>0.338065111906787</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(20)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2952300839768474</v>
+        <v>0.3230085395246081</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail(19)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2926107804449392</v>
+        <v>0.3174692589469055</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Building Products(27)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2822639286096113</v>
+        <v>0.2848110563497159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Electrical Equipment(31)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2806690082670764</v>
+        <v>0.2783591086449008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(21)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2800055928398292</v>
+        <v>0.2770544365119251</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(28)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2747491303638956</v>
+        <v>0.2747318155666205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(43)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2599363883312876</v>
+        <v>0.2696989538733799</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Capital Markets(87)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2465095836674853</v>
+        <v>0.244822527871412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Consumer Finance(23)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2448028883538119</v>
+        <v>0.2392752732412778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Media(47)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2397954738600133</v>
+        <v>0.2389711178610557</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Banks(271)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2391961293199947</v>
+        <v>0.2188648845285672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(57)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2259013586019726</v>
+        <v>0.2169784159426315</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Beverages(22)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1957353777380837</v>
+        <v>0.1995255792216599</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(75)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1954170196316011</v>
+        <v>0.1903255716778237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(56)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1936569254133684</v>
+        <v>0.1894672843098727</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(54)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1912679496976757</v>
+        <v>0.1860657929027088</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IT Services(58)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1851970642564166</v>
+        <v>0.1803163295256444</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(48)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1824200349547038</v>
+        <v>0.1795038682429143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Household Durables(43)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1761178021907129</v>
+        <v>0.1757322938026915</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Software(70)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1732416373722115</v>
+        <v>0.1725878662950896</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(87)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1606900125098304</v>
+        <v>0.1621290761695298</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Biotechnology(163)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1558756705109071</v>
+        <v>0.1314788714608264</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Professional Services(38)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1372829852719304</v>
+        <v>0.1221762510538849</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(52)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1307044885417286</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Specialty Retail(63)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.1206871777686332</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Communications Equipment(50)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.1065212415094135</v>
+        <v>0.1031403075966969</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_correlations/2015_intra.xlsx
+++ b/data/sector_correlations/2015_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,240 +588,250 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>No Sector(375)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3230085395246081</v>
+        <v>0.3278855124345622</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3174692589469055</v>
+        <v>0.3230085395246081</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2848110563497159</v>
+        <v>0.3174692589469055</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2783591086449008</v>
+        <v>0.2848110563497159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2770544365119251</v>
+        <v>0.2783591086449008</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Electrical Equipment(28)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2747318155666205</v>
+        <v>0.2770544365119251</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(20)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2696989538733799</v>
+        <v>0.2747318155666205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.244822527871412</v>
+        <v>0.2696989538733799</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2392752732412778</v>
+        <v>0.244822527871412</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2389711178610557</v>
+        <v>0.2392752732412778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2188648845285672</v>
+        <v>0.2389711178610557</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2169784159426315</v>
+        <v>0.2188648845285672</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1995255792216599</v>
+        <v>0.2169784159426315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1903255716778237</v>
+        <v>0.1995255792216599</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1894672843098727</v>
+        <v>0.1903255716778237</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1860657929027088</v>
+        <v>0.1894672843098727</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1803163295256444</v>
+        <v>0.1860657929027088</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1795038682429143</v>
+        <v>0.1803163295256444</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1757322938026915</v>
+        <v>0.1795038682429143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1725878662950896</v>
+        <v>0.1757322938026915</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1621290761695298</v>
+        <v>0.1725878662950896</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1314788714608264</v>
+        <v>0.1621290761695298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1221762510538849</v>
+        <v>0.1314788714608264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Professional Services(35)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1221762510538849</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Communications Equipment(45)</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>0.1031403075966969</v>
       </c>
     </row>

--- a/data/sector_correlations/2015_intra.xlsx
+++ b/data/sector_correlations/2015_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,201 +448,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Mortgage Real Estate Investment Trust...(16)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5423198209279574</v>
+        <v>0.5660140110979992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging(12)</t>
+          <t>Energy Equipment &amp; Services(38)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4271537997120528</v>
+        <v>0.456318762427332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Electric Utilities(28)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4204824388844848</v>
+        <v>0.4271537997120528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Marine(15)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4187471659623295</v>
+        <v>0.4204824388844848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(22)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4163434739926311</v>
+        <v>0.4187471659623295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Multi-Utilities(18)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4101314264982653</v>
+        <v>0.4163434739926311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Equity Real Estate Investment Trusts ...(98)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4048105841666986</v>
+        <v>0.4129983619278561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4001645687494276</v>
+        <v>0.4101314264982653</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3919310531092248</v>
+        <v>0.4048105841666986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics(11)</t>
+          <t>Machinery(86)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3843055748893925</v>
+        <v>0.3956950225213282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Insurance(75)</t>
+          <t>Chemicals(52)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3663951961680489</v>
+        <v>0.3856895279690697</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Air Freight &amp; Logistics(11)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.354268143137205</v>
+        <v>0.3843055748893925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Consumer Finance(15)</t>
+          <t>ETF(303)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3459232203685237</v>
+        <v>0.3702495491863249</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.338065111906787</v>
+        <v>0.3663951961680489</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>No Sector(375)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3278855124345622</v>
+        <v>0.3459232203685237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(125)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3230085395246081</v>
+        <v>0.3409126068671584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3174692589469055</v>
+        <v>0.3230085395246081</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Building Products(24)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2848110563497159</v>
+        <v>0.3099121279876063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>Metals &amp; Mining(106)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2783591086449008</v>
+        <v>0.2832846768859565</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2770544365119251</v>
+        <v>0.2783591086449008</v>
       </c>
     </row>
     <row r="22">
@@ -658,180 +658,210 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(20)</t>
+          <t>Banks(251)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2696989538733799</v>
+        <v>0.2743789436570588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.244822527871412</v>
+        <v>0.2696989538733799</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Capital Markets(76)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2392752732412778</v>
+        <v>0.2692032346221656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2389711178610557</v>
+        <v>0.244822527871412</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2188648845285672</v>
+        <v>0.2389711178610557</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(70)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2169784159426315</v>
+        <v>0.2340788241204227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Construction &amp; Engineering(21)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1995255792216599</v>
+        <v>0.2257018002790304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1903255716778237</v>
+        <v>0.2169784159426315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Biotechnology(128)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1894672843098727</v>
+        <v>0.2003798688164793</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1860657929027088</v>
+        <v>0.1903255716778237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1803163295256444</v>
+        <v>0.1894672843098727</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Hotels, Restaurants &amp; Leisure(51)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1795038682429143</v>
+        <v>0.1810712110532062</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Health Care Providers &amp; Services(47)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1757322938026915</v>
+        <v>0.1787980920664778</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1725878662950896</v>
+        <v>0.1757322938026915</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Pharmaceuticals(53)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1621290761695298</v>
+        <v>0.1756744816524684</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Health Care Equipment &amp; Supplies(86)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1314788714608264</v>
+        <v>0.1687022434171843</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Software(70)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1221762510538849</v>
+        <v>0.1674105163098936</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Electronic Equipment, Instruments &amp; C...(78)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1290376834206546</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Specialty Retail(59)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1251773521755793</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Professional Services(35)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1221762510538849</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>Communications Equipment(45)</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>0.1031403075966969</v>
       </c>
     </row>
